--- a/INFORMATICS/лр_5/task_2.xlsx
+++ b/INFORMATICS/лр_5/task_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itmo\INFORMATICS\лр_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBEE6FD-BEC8-4DCD-BE01-5978D70E1EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C5544-D2A1-4E42-B221-3C174828A940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{982083FA-A7AE-4884-9F29-E4F9B8E5020D}"/>
   </bookViews>
@@ -18,13 +18,31 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$2:$A$3206</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$B$2:$B$3206</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Лист1!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Лист1!$C$2:$C$3206</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Лист1!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Лист1!$D$2:$D$3206</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Лист1!$E$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Лист1!$E$2:$E$3206</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Лист1!$A$2:$A$3206</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Лист1!$B$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$2:$B$3206</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Лист1!$B$2:$B$3206</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Лист1!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Лист1!$C$2:$C$3206</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Лист1!$D$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Лист1!$D$2:$D$3206</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Лист1!$E$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Лист1!$E$2:$E$3206</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Лист1!$C$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Лист1!$C$2:$C$3206</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Лист1!$D$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Лист1!$D$2:$D$3206</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Лист1!$E$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Лист1!$E$2:$E$3206</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$A$2:$A$3206</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -333,7 +351,40 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+              </a:rPr>
+              <a:t>Диаграмка</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{42B24607-9A2D-4666-A956-65F7E4C6C79E}">
@@ -390,15 +441,17 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+        <cx:catScaling gapWidth="1.5"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
+        <cx:minorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -444,7 +497,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="374">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -455,7 +508,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -485,7 +538,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -501,7 +554,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="900"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -509,8 +562,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -520,23 +573,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -552,7 +600,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -572,7 +620,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -587,7 +635,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -605,20 +653,17 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -626,7 +671,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -673,7 +718,7 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="28575">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -726,7 +771,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -734,7 +779,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -753,14 +798,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -775,11 +820,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -791,19 +836,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -822,7 +856,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -830,7 +864,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -861,7 +895,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
@@ -876,13 +910,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="2000"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -891,7 +925,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -925,11 +959,11 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="28575">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -952,7 +986,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -962,16 +996,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135338</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>441934</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127256</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43961</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1007,8 +1041,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5880818" y="948266"/>
-              <a:ext cx="4573796" cy="2867070"/>
+              <a:off x="5546481" y="556846"/>
+              <a:ext cx="5714999" cy="3802673"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1360,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D61539-9AA9-4AB6-B620-65ABF3CD4A3E}">
   <dimension ref="A1:E3206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="104" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
